--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -113,12 +113,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -140,19 +139,12 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Monospace"/>
       <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -197,7 +189,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -216,10 +208,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -242,14 +230,16 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="3" style="0" width="11.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="26.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="13" style="0" width="11.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -350,7 +340,7 @@
       <c r="K10" s="0" t="n">
         <v>56456675645</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="M10" s="0" t="s">
